--- a/DS/001_設計書/002_詳細設計書/DS画面詳細設計書_11人員検索ダイアログ.xlsx
+++ b/DS/001_設計書/002_詳細設計書/DS画面詳細設計書_11人員検索ダイアログ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0ta52\OneDrive\ドキュメント\DeliverySystem\DS\001_設計書\002_詳細設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87EDBD74-5C5F-425D-AC8F-DD7D612C5E77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71DACAF7-F591-40D8-B301-14E6F6CA8CEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="103">
   <si>
     <t>作成日</t>
   </si>
@@ -96,35 +96,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>ボタン押下イベントなどの関数を記述する</t>
-    <rPh sb="3" eb="5">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>キジュツ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>DB接続系の関数はここに記述する</t>
-    <rPh sb="2" eb="4">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ケイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>キジュツ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>関連関数名</t>
     <rPh sb="0" eb="2">
       <t>カンレン</t>
@@ -143,24 +114,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>GETDATA</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>PARAM</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>DATA</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>SELECT COLUMN1,COLUMN2
-FROM TABLE
-WHERE COLUMN3 = PARAM</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>アイテム名</t>
     <rPh sb="4" eb="5">
       <t>メイ</t>
@@ -204,14 +157,6 @@
   </si>
   <si>
     <t>コンストラクタ</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>PASS</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>GETDATA</t>
     <phoneticPr fontId="6"/>
   </si>
   <si>
@@ -548,6 +493,365 @@
     </rPh>
     <rPh sb="28" eb="30">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>権限区分</t>
+    <rPh sb="0" eb="4">
+      <t>ケンゲンクブン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>生年月日</t>
+    <rPh sb="0" eb="4">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>空白</t>
+    <rPh sb="0" eb="2">
+      <t>クウハク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>～</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>「～」を表示するのみ</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>入力制限なし。半角50文字分</t>
+    <rPh sb="0" eb="4">
+      <t>ニュウリョクセイゲン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>モジブン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>入力制限なし。半角50文字分</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>コンボボックス。選択項目はテキスト欄の通りです。</t>
+    <rPh sb="8" eb="10">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>コンボボックス。選択項目はテキスト欄の通りです。</t>
+    <rPh sb="8" eb="10">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>数値・記号のみ入力する。半角10文字分</t>
+    <rPh sb="0" eb="2">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キゴウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Grid</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>検索結果の一覧表示。詳細はグリッド内容例参照</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Personnel_Grid</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Search_Button_OnClick</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>OnClick</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Confirm_Button_OnClick</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>人員ID・名前・地域・権限区分・生年月日を検索条件で検索して、グリッドに一覧表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>ジンイン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>チイキ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>ケンゲンクブン</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>public</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>GetPersonnelId</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>string personnelId</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ダイアログリザルトをキャンセルにして、ダイアログを閉じる。</t>
+    <rPh sb="25" eb="26">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ダイアログリザルトをOKにして、選択した人員IDを保持してダイアログを閉じる。</t>
+    <rPh sb="16" eb="18">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジンイン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Search</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>DataSet data</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>SQLException：「クエリに問題があります。システム管理者に連絡してください。」
+SQLTimeOverException：「DB接続状況が不安定です。時間をおいてから実行してください。」
+検索結果０件：「検索結果が０件です。」
+Exception：Throw</t>
+    <rPh sb="103" eb="104">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>string personnelId, string name, string area, string authority, string barthdayFrom, string barthdayTo
+※構造体でもよい</t>
+    <rPh sb="104" eb="107">
+      <t>コウゾウタイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>担当地域</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>人員ID・名前・担当地域・権限区分・生年月日を条件として検索する。検索結果をdataとして戻す。</t>
+    <rPh sb="0" eb="2">
+      <t>ジンイン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>タントウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>チイキ</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>ケンゲンクブン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セイネン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガッピ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>SELECT id, name,
+FROM Personnel
+WHERE id = 人員ID
+AND name = 名前
+AND area2 = 担当地域
+AND authority = 権限区分
+AND barthday BETWEEN 生年月日From AND 生年月日To</t>
+    <rPh sb="43" eb="45">
+      <t>ジンイン</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>タントウ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>チイキ</t>
+    </rPh>
+    <rPh sb="95" eb="99">
+      <t>ケンゲンクブン</t>
+    </rPh>
+    <rPh sb="121" eb="125">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <rPh sb="134" eb="138">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Cancel_Button_OnClick</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>保持した人員IDを取得する。
+保持していない場合、空文字を返す。</t>
+    <rPh sb="0" eb="2">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジンイン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カエ</t>
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
@@ -852,15 +1156,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -878,6 +1173,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -885,10 +1189,10 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1005,7 +1309,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="0" y="268884"/>
-          <a:ext cx="5181601" cy="5581371"/>
+          <a:ext cx="5113021" cy="5448021"/>
           <a:chOff x="0" y="391894"/>
           <a:chExt cx="5104083" cy="5447876"/>
         </a:xfrm>
@@ -2005,7 +2309,7 @@
                 <a:latin typeface="+mn-ea"/>
                 <a:ea typeface="+mn-ea"/>
               </a:rPr>
-              <a:t>地域</a:t>
+              <a:t>担当地域</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400" b="1" strike="noStrike" spc="-1">
               <a:latin typeface="+mn-ea"/>
@@ -2293,7 +2597,7 @@
                 <a:latin typeface="+mn-ea"/>
                 <a:ea typeface="+mn-ea"/>
               </a:rPr>
-              <a:t>閉じる</a:t>
+              <a:t>キャンセル</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400" b="1" strike="noStrike" spc="-1">
               <a:solidFill>
@@ -2336,8 +2640,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="171450" y="6067439"/>
-          <a:ext cx="3409951" cy="1190625"/>
+          <a:off x="167640" y="5935994"/>
+          <a:ext cx="3368041" cy="1158240"/>
           <a:chOff x="29577" y="5128611"/>
           <a:chExt cx="3431289" cy="1198811"/>
         </a:xfrm>
@@ -2947,6 +3251,61 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C02A082-94C1-4EA3-9245-761BE33EEA34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7924800" cy="6686550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -3246,7 +3605,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IW50"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3695,7 +4054,7 @@
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="25" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="J9" s="25"/>
       <c r="K9" s="25"/>
@@ -5456,7 +5815,7 @@
       <c r="AJ41" s="22"/>
       <c r="AK41" s="22"/>
       <c r="AL41" s="26">
-        <v>44064</v>
+        <v>44065</v>
       </c>
       <c r="AM41" s="26"/>
       <c r="AN41" s="26"/>
@@ -6035,7 +6394,7 @@
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A46" s="28" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
@@ -6210,7 +6569,7 @@
         <v>11</v>
       </c>
       <c r="B53" s="29" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C53" s="29"/>
       <c r="D53" s="29"/>
@@ -6218,13 +6577,13 @@
       <c r="F53" s="29"/>
       <c r="G53" s="29"/>
       <c r="H53" s="29" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I53" s="29"/>
       <c r="J53" s="29"/>
       <c r="K53" s="29"/>
       <c r="L53" s="29" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M53" s="29"/>
       <c r="N53" s="29"/>
@@ -6235,7 +6594,7 @@
       <c r="S53" s="29"/>
       <c r="T53" s="29"/>
       <c r="U53" s="29" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="V53" s="29"/>
       <c r="W53" s="29"/>
@@ -6254,7 +6613,7 @@
         <v>1</v>
       </c>
       <c r="B54" s="28" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C54" s="28"/>
       <c r="D54" s="28"/>
@@ -6262,12 +6621,14 @@
       <c r="F54" s="28"/>
       <c r="G54" s="28"/>
       <c r="H54" s="28" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I54" s="28"/>
       <c r="J54" s="28"/>
       <c r="K54" s="28"/>
-      <c r="L54" s="28"/>
+      <c r="L54" s="28" t="s">
+        <v>57</v>
+      </c>
       <c r="M54" s="28"/>
       <c r="N54" s="28"/>
       <c r="O54" s="28"/>
@@ -6276,7 +6637,9 @@
       <c r="R54" s="28"/>
       <c r="S54" s="28"/>
       <c r="T54" s="28"/>
-      <c r="U54" s="28"/>
+      <c r="U54" s="28" t="s">
+        <v>59</v>
+      </c>
       <c r="V54" s="28"/>
       <c r="W54" s="28"/>
       <c r="X54" s="28"/>
@@ -6295,7 +6658,7 @@
         <v>2</v>
       </c>
       <c r="B55" s="28" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C55" s="28"/>
       <c r="D55" s="28"/>
@@ -6303,12 +6666,14 @@
       <c r="F55" s="28"/>
       <c r="G55" s="28"/>
       <c r="H55" s="28" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I55" s="28"/>
       <c r="J55" s="28"/>
       <c r="K55" s="28"/>
-      <c r="L55" s="28"/>
+      <c r="L55" s="28" t="s">
+        <v>70</v>
+      </c>
       <c r="M55" s="28"/>
       <c r="N55" s="28"/>
       <c r="O55" s="28"/>
@@ -6317,7 +6682,9 @@
       <c r="R55" s="28"/>
       <c r="S55" s="28"/>
       <c r="T55" s="28"/>
-      <c r="U55" s="28"/>
+      <c r="U55" s="28" t="s">
+        <v>59</v>
+      </c>
       <c r="V55" s="28"/>
       <c r="W55" s="28"/>
       <c r="X55" s="28"/>
@@ -6332,11 +6699,11 @@
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A56" s="19">
-        <f t="shared" ref="A56:A82" si="0" xml:space="preserve"> $A55 + 1</f>
+        <f t="shared" ref="A56:A80" si="0" xml:space="preserve"> $A55 + 1</f>
         <v>3</v>
       </c>
       <c r="B56" s="28" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C56" s="28"/>
       <c r="D56" s="28"/>
@@ -6344,12 +6711,14 @@
       <c r="F56" s="28"/>
       <c r="G56" s="28"/>
       <c r="H56" s="28" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I56" s="28"/>
       <c r="J56" s="28"/>
       <c r="K56" s="28"/>
-      <c r="L56" s="28"/>
+      <c r="L56" s="28" t="s">
+        <v>98</v>
+      </c>
       <c r="M56" s="28"/>
       <c r="N56" s="28"/>
       <c r="O56" s="28"/>
@@ -6358,7 +6727,9 @@
       <c r="R56" s="28"/>
       <c r="S56" s="28"/>
       <c r="T56" s="28"/>
-      <c r="U56" s="28"/>
+      <c r="U56" s="28" t="s">
+        <v>59</v>
+      </c>
       <c r="V56" s="28"/>
       <c r="W56" s="28"/>
       <c r="X56" s="28"/>
@@ -6377,7 +6748,7 @@
         <v>4</v>
       </c>
       <c r="B57" s="28" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C57" s="28"/>
       <c r="D57" s="28"/>
@@ -6385,12 +6756,14 @@
       <c r="F57" s="28"/>
       <c r="G57" s="28"/>
       <c r="H57" s="28" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I57" s="28"/>
       <c r="J57" s="28"/>
       <c r="K57" s="28"/>
-      <c r="L57" s="28"/>
+      <c r="L57" s="28" t="s">
+        <v>71</v>
+      </c>
       <c r="M57" s="28"/>
       <c r="N57" s="28"/>
       <c r="O57" s="28"/>
@@ -6399,7 +6772,9 @@
       <c r="R57" s="28"/>
       <c r="S57" s="28"/>
       <c r="T57" s="28"/>
-      <c r="U57" s="28"/>
+      <c r="U57" s="28" t="s">
+        <v>59</v>
+      </c>
       <c r="V57" s="28"/>
       <c r="W57" s="28"/>
       <c r="X57" s="28"/>
@@ -6412,13 +6787,13 @@
       <c r="AE57" s="28"/>
       <c r="AF57" s="28"/>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:32" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B58" s="28" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C58" s="28"/>
       <c r="D58" s="28"/>
@@ -6426,12 +6801,14 @@
       <c r="F58" s="28"/>
       <c r="G58" s="28"/>
       <c r="H58" s="28" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I58" s="28"/>
       <c r="J58" s="28"/>
       <c r="K58" s="28"/>
-      <c r="L58" s="28"/>
+      <c r="L58" s="28" t="s">
+        <v>72</v>
+      </c>
       <c r="M58" s="28"/>
       <c r="N58" s="28"/>
       <c r="O58" s="28"/>
@@ -6440,7 +6817,9 @@
       <c r="R58" s="28"/>
       <c r="S58" s="28"/>
       <c r="T58" s="28"/>
-      <c r="U58" s="28"/>
+      <c r="U58" s="28" t="s">
+        <v>59</v>
+      </c>
       <c r="V58" s="28"/>
       <c r="W58" s="28"/>
       <c r="X58" s="28"/>
@@ -6459,7 +6838,7 @@
         <v>6</v>
       </c>
       <c r="B59" s="28" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C59" s="28"/>
       <c r="D59" s="28"/>
@@ -6467,12 +6846,14 @@
       <c r="F59" s="28"/>
       <c r="G59" s="28"/>
       <c r="H59" s="28" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I59" s="28"/>
       <c r="J59" s="28"/>
       <c r="K59" s="28"/>
-      <c r="L59" s="28"/>
+      <c r="L59" s="28" t="s">
+        <v>73</v>
+      </c>
       <c r="M59" s="28"/>
       <c r="N59" s="28"/>
       <c r="O59" s="28"/>
@@ -6481,7 +6862,9 @@
       <c r="R59" s="28"/>
       <c r="S59" s="28"/>
       <c r="T59" s="28"/>
-      <c r="U59" s="28"/>
+      <c r="U59" s="28" t="s">
+        <v>76</v>
+      </c>
       <c r="V59" s="28"/>
       <c r="W59" s="28"/>
       <c r="X59" s="28"/>
@@ -6500,7 +6883,7 @@
         <v>7</v>
       </c>
       <c r="B60" s="28" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C60" s="28"/>
       <c r="D60" s="28"/>
@@ -6508,12 +6891,14 @@
       <c r="F60" s="28"/>
       <c r="G60" s="28"/>
       <c r="H60" s="28" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I60" s="28"/>
       <c r="J60" s="28"/>
       <c r="K60" s="28"/>
-      <c r="L60" s="28"/>
+      <c r="L60" s="28" t="s">
+        <v>73</v>
+      </c>
       <c r="M60" s="28"/>
       <c r="N60" s="28"/>
       <c r="O60" s="28"/>
@@ -6522,7 +6907,9 @@
       <c r="R60" s="28"/>
       <c r="S60" s="28"/>
       <c r="T60" s="28"/>
-      <c r="U60" s="28"/>
+      <c r="U60" s="28" t="s">
+        <v>77</v>
+      </c>
       <c r="V60" s="28"/>
       <c r="W60" s="28"/>
       <c r="X60" s="28"/>
@@ -6541,7 +6928,7 @@
         <v>8</v>
       </c>
       <c r="B61" s="28" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C61" s="28"/>
       <c r="D61" s="28"/>
@@ -6549,13 +6936,13 @@
       <c r="F61" s="28"/>
       <c r="G61" s="28"/>
       <c r="H61" s="28" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I61" s="28"/>
       <c r="J61" s="28"/>
       <c r="K61" s="28"/>
       <c r="L61" s="28" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="M61" s="28"/>
       <c r="N61" s="28"/>
@@ -6565,7 +6952,9 @@
       <c r="R61" s="28"/>
       <c r="S61" s="28"/>
       <c r="T61" s="28"/>
-      <c r="U61" s="28"/>
+      <c r="U61" s="28" t="s">
+        <v>78</v>
+      </c>
       <c r="V61" s="28"/>
       <c r="W61" s="28"/>
       <c r="X61" s="28"/>
@@ -6584,7 +6973,7 @@
         <v>9</v>
       </c>
       <c r="B62" s="28" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C62" s="28"/>
       <c r="D62" s="28"/>
@@ -6592,13 +6981,13 @@
       <c r="F62" s="28"/>
       <c r="G62" s="28"/>
       <c r="H62" s="28" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I62" s="28"/>
       <c r="J62" s="28"/>
       <c r="K62" s="28"/>
       <c r="L62" s="28" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="M62" s="28"/>
       <c r="N62" s="28"/>
@@ -6608,7 +6997,9 @@
       <c r="R62" s="28"/>
       <c r="S62" s="28"/>
       <c r="T62" s="28"/>
-      <c r="U62" s="28"/>
+      <c r="U62" s="28" t="s">
+        <v>79</v>
+      </c>
       <c r="V62" s="28"/>
       <c r="W62" s="28"/>
       <c r="X62" s="28"/>
@@ -6627,7 +7018,7 @@
         <v>10</v>
       </c>
       <c r="B63" s="28" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C63" s="28"/>
       <c r="D63" s="28"/>
@@ -6635,12 +7026,14 @@
       <c r="F63" s="28"/>
       <c r="G63" s="28"/>
       <c r="H63" s="28" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="I63" s="28"/>
       <c r="J63" s="28"/>
       <c r="K63" s="28"/>
-      <c r="L63" s="28"/>
+      <c r="L63" s="28" t="s">
+        <v>73</v>
+      </c>
       <c r="M63" s="28"/>
       <c r="N63" s="28"/>
       <c r="O63" s="28"/>
@@ -6649,7 +7042,9 @@
       <c r="R63" s="28"/>
       <c r="S63" s="28"/>
       <c r="T63" s="28"/>
-      <c r="U63" s="28"/>
+      <c r="U63" s="28" t="s">
+        <v>80</v>
+      </c>
       <c r="V63" s="28"/>
       <c r="W63" s="28"/>
       <c r="X63" s="28"/>
@@ -6668,7 +7063,7 @@
         <v>11</v>
       </c>
       <c r="B64" s="28" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C64" s="28"/>
       <c r="D64" s="28"/>
@@ -6676,12 +7071,14 @@
       <c r="F64" s="28"/>
       <c r="G64" s="28"/>
       <c r="H64" s="28" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I64" s="28"/>
       <c r="J64" s="28"/>
       <c r="K64" s="28"/>
-      <c r="L64" s="28"/>
+      <c r="L64" s="28" t="s">
+        <v>74</v>
+      </c>
       <c r="M64" s="28"/>
       <c r="N64" s="28"/>
       <c r="O64" s="28"/>
@@ -6690,7 +7087,9 @@
       <c r="R64" s="28"/>
       <c r="S64" s="28"/>
       <c r="T64" s="28"/>
-      <c r="U64" s="28"/>
+      <c r="U64" s="28" t="s">
+        <v>75</v>
+      </c>
       <c r="V64" s="28"/>
       <c r="W64" s="28"/>
       <c r="X64" s="28"/>
@@ -6709,7 +7108,7 @@
         <v>12</v>
       </c>
       <c r="B65" s="28" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C65" s="28"/>
       <c r="D65" s="28"/>
@@ -6717,12 +7116,14 @@
       <c r="F65" s="28"/>
       <c r="G65" s="28"/>
       <c r="H65" s="28" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="I65" s="28"/>
       <c r="J65" s="28"/>
       <c r="K65" s="28"/>
-      <c r="L65" s="28"/>
+      <c r="L65" s="28" t="s">
+        <v>73</v>
+      </c>
       <c r="M65" s="28"/>
       <c r="N65" s="28"/>
       <c r="O65" s="28"/>
@@ -6731,7 +7132,9 @@
       <c r="R65" s="28"/>
       <c r="S65" s="28"/>
       <c r="T65" s="28"/>
-      <c r="U65" s="28"/>
+      <c r="U65" s="28" t="s">
+        <v>80</v>
+      </c>
       <c r="V65" s="28"/>
       <c r="W65" s="28"/>
       <c r="X65" s="28"/>
@@ -6750,7 +7153,7 @@
         <v>13</v>
       </c>
       <c r="B66" s="28" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C66" s="28"/>
       <c r="D66" s="28"/>
@@ -6758,13 +7161,13 @@
       <c r="F66" s="28"/>
       <c r="G66" s="28"/>
       <c r="H66" s="28" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="I66" s="28"/>
       <c r="J66" s="28"/>
       <c r="K66" s="28"/>
       <c r="L66" s="28" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="M66" s="28"/>
       <c r="N66" s="28"/>
@@ -6775,7 +7178,7 @@
       <c r="S66" s="28"/>
       <c r="T66" s="28"/>
       <c r="U66" s="28" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="V66" s="28"/>
       <c r="W66" s="28"/>
@@ -6795,7 +7198,7 @@
         <v>14</v>
       </c>
       <c r="B67" s="28" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C67" s="28"/>
       <c r="D67" s="28"/>
@@ -6803,13 +7206,13 @@
       <c r="F67" s="28"/>
       <c r="G67" s="28"/>
       <c r="H67" s="28" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="I67" s="28"/>
       <c r="J67" s="28"/>
       <c r="K67" s="28"/>
       <c r="L67" s="28" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="M67" s="28"/>
       <c r="N67" s="28"/>
@@ -6820,7 +7223,7 @@
       <c r="S67" s="28"/>
       <c r="T67" s="28"/>
       <c r="U67" s="28" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="V67" s="28"/>
       <c r="W67" s="28"/>
@@ -6840,7 +7243,7 @@
         <v>15</v>
       </c>
       <c r="B68" s="28" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C68" s="28"/>
       <c r="D68" s="28"/>
@@ -6848,13 +7251,13 @@
       <c r="F68" s="28"/>
       <c r="G68" s="28"/>
       <c r="H68" s="28" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="I68" s="28"/>
       <c r="J68" s="28"/>
       <c r="K68" s="28"/>
       <c r="L68" s="28" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="M68" s="28"/>
       <c r="N68" s="28"/>
@@ -6865,7 +7268,7 @@
       <c r="S68" s="28"/>
       <c r="T68" s="28"/>
       <c r="U68" s="28" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="V68" s="28"/>
       <c r="W68" s="28"/>
@@ -6884,17 +7287,23 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B69" s="28"/>
+      <c r="B69" s="28" t="s">
+        <v>83</v>
+      </c>
       <c r="C69" s="28"/>
       <c r="D69" s="28"/>
       <c r="E69" s="28"/>
       <c r="F69" s="28"/>
       <c r="G69" s="28"/>
-      <c r="H69" s="28"/>
+      <c r="H69" s="28" t="s">
+        <v>81</v>
+      </c>
       <c r="I69" s="28"/>
       <c r="J69" s="28"/>
       <c r="K69" s="28"/>
-      <c r="L69" s="28"/>
+      <c r="L69" s="28" t="s">
+        <v>60</v>
+      </c>
       <c r="M69" s="28"/>
       <c r="N69" s="28"/>
       <c r="O69" s="28"/>
@@ -6903,7 +7312,9 @@
       <c r="R69" s="28"/>
       <c r="S69" s="28"/>
       <c r="T69" s="28"/>
-      <c r="U69" s="28"/>
+      <c r="U69" s="28" t="s">
+        <v>82</v>
+      </c>
       <c r="V69" s="28"/>
       <c r="W69" s="28"/>
       <c r="X69" s="28"/>
@@ -6921,23 +7332,17 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B70" s="28" t="s">
-        <v>63</v>
-      </c>
+      <c r="B70" s="28"/>
       <c r="C70" s="28"/>
       <c r="D70" s="28"/>
       <c r="E70" s="28"/>
       <c r="F70" s="28"/>
       <c r="G70" s="28"/>
-      <c r="H70" s="28" t="s">
-        <v>51</v>
-      </c>
+      <c r="H70" s="28"/>
       <c r="I70" s="28"/>
       <c r="J70" s="28"/>
       <c r="K70" s="28"/>
-      <c r="L70" s="28" t="s">
-        <v>65</v>
-      </c>
+      <c r="L70" s="28"/>
       <c r="M70" s="28"/>
       <c r="N70" s="28"/>
       <c r="O70" s="28"/>
@@ -6946,9 +7351,7 @@
       <c r="R70" s="28"/>
       <c r="S70" s="28"/>
       <c r="T70" s="28"/>
-      <c r="U70" s="28" t="s">
-        <v>67</v>
-      </c>
+      <c r="U70" s="28"/>
       <c r="V70" s="28"/>
       <c r="W70" s="28"/>
       <c r="X70" s="28"/>
@@ -6961,13 +7364,13 @@
       <c r="AE70" s="28"/>
       <c r="AF70" s="28"/>
     </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:32" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="21">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B71" s="28" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C71" s="28"/>
       <c r="D71" s="28"/>
@@ -6975,13 +7378,13 @@
       <c r="F71" s="28"/>
       <c r="G71" s="28"/>
       <c r="H71" s="28" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I71" s="28"/>
       <c r="J71" s="28"/>
       <c r="K71" s="28"/>
       <c r="L71" s="28" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="M71" s="28"/>
       <c r="N71" s="28"/>
@@ -6992,7 +7395,7 @@
       <c r="S71" s="28"/>
       <c r="T71" s="28"/>
       <c r="U71" s="28" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="V71" s="28"/>
       <c r="W71" s="28"/>
@@ -7006,132 +7409,140 @@
       <c r="AE71" s="28"/>
       <c r="AF71" s="28"/>
     </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:32" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="21">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B72" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C72" s="28"/>
-      <c r="D72" s="28"/>
-      <c r="E72" s="28"/>
-      <c r="F72" s="28"/>
-      <c r="G72" s="28"/>
-      <c r="H72" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="I72" s="28"/>
-      <c r="J72" s="28"/>
-      <c r="K72" s="28"/>
-      <c r="L72" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="M72" s="28"/>
-      <c r="N72" s="28"/>
-      <c r="O72" s="28"/>
-      <c r="P72" s="28"/>
-      <c r="Q72" s="28"/>
-      <c r="R72" s="28"/>
-      <c r="S72" s="28"/>
-      <c r="T72" s="28"/>
-      <c r="U72" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="V72" s="28"/>
-      <c r="W72" s="28"/>
-      <c r="X72" s="28"/>
-      <c r="Y72" s="28"/>
-      <c r="Z72" s="28"/>
-      <c r="AA72" s="28"/>
-      <c r="AB72" s="28"/>
-      <c r="AC72" s="28"/>
-      <c r="AD72" s="28"/>
-      <c r="AE72" s="28"/>
-      <c r="AF72" s="28"/>
-    </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B72" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C72" s="32"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="32"/>
+      <c r="F72" s="32"/>
+      <c r="G72" s="33"/>
+      <c r="H72" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="I72" s="32"/>
+      <c r="J72" s="32"/>
+      <c r="K72" s="33"/>
+      <c r="L72" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="M72" s="32"/>
+      <c r="N72" s="32"/>
+      <c r="O72" s="32"/>
+      <c r="P72" s="32"/>
+      <c r="Q72" s="32"/>
+      <c r="R72" s="32"/>
+      <c r="S72" s="32"/>
+      <c r="T72" s="33"/>
+      <c r="U72" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="V72" s="32"/>
+      <c r="W72" s="32"/>
+      <c r="X72" s="32"/>
+      <c r="Y72" s="32"/>
+      <c r="Z72" s="32"/>
+      <c r="AA72" s="32"/>
+      <c r="AB72" s="32"/>
+      <c r="AC72" s="32"/>
+      <c r="AD72" s="32"/>
+      <c r="AE72" s="32"/>
+      <c r="AF72" s="33"/>
+    </row>
+    <row r="73" spans="1:32" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="21">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B73" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C73" s="28"/>
-      <c r="D73" s="28"/>
-      <c r="E73" s="28"/>
-      <c r="F73" s="28"/>
-      <c r="G73" s="28"/>
-      <c r="H73" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="I73" s="28"/>
-      <c r="J73" s="28"/>
-      <c r="K73" s="28"/>
-      <c r="L73" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="M73" s="28"/>
-      <c r="N73" s="28"/>
-      <c r="O73" s="28"/>
-      <c r="P73" s="28"/>
-      <c r="Q73" s="28"/>
-      <c r="R73" s="28"/>
-      <c r="S73" s="28"/>
-      <c r="T73" s="28"/>
-      <c r="U73" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="V73" s="28"/>
-      <c r="W73" s="28"/>
-      <c r="X73" s="28"/>
-      <c r="Y73" s="28"/>
-      <c r="Z73" s="28"/>
-      <c r="AA73" s="28"/>
-      <c r="AB73" s="28"/>
-      <c r="AC73" s="28"/>
-      <c r="AD73" s="28"/>
-      <c r="AE73" s="28"/>
-      <c r="AF73" s="28"/>
+      <c r="B73" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C73" s="32"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="32"/>
+      <c r="F73" s="32"/>
+      <c r="G73" s="33"/>
+      <c r="H73" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I73" s="32"/>
+      <c r="J73" s="32"/>
+      <c r="K73" s="33"/>
+      <c r="L73" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="M73" s="32"/>
+      <c r="N73" s="32"/>
+      <c r="O73" s="32"/>
+      <c r="P73" s="32"/>
+      <c r="Q73" s="32"/>
+      <c r="R73" s="32"/>
+      <c r="S73" s="32"/>
+      <c r="T73" s="33"/>
+      <c r="U73" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="V73" s="32"/>
+      <c r="W73" s="32"/>
+      <c r="X73" s="32"/>
+      <c r="Y73" s="32"/>
+      <c r="Z73" s="32"/>
+      <c r="AA73" s="32"/>
+      <c r="AB73" s="32"/>
+      <c r="AC73" s="32"/>
+      <c r="AD73" s="32"/>
+      <c r="AE73" s="32"/>
+      <c r="AF73" s="33"/>
     </row>
     <row r="74" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A74" s="21">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B74" s="28"/>
-      <c r="C74" s="28"/>
-      <c r="D74" s="28"/>
-      <c r="E74" s="28"/>
-      <c r="F74" s="28"/>
-      <c r="G74" s="28"/>
-      <c r="H74" s="28"/>
-      <c r="I74" s="28"/>
-      <c r="J74" s="28"/>
-      <c r="K74" s="28"/>
-      <c r="L74" s="28"/>
-      <c r="M74" s="28"/>
-      <c r="N74" s="28"/>
-      <c r="O74" s="28"/>
-      <c r="P74" s="28"/>
-      <c r="Q74" s="28"/>
-      <c r="R74" s="28"/>
-      <c r="S74" s="28"/>
-      <c r="T74" s="28"/>
-      <c r="U74" s="28"/>
-      <c r="V74" s="28"/>
-      <c r="W74" s="28"/>
-      <c r="X74" s="28"/>
-      <c r="Y74" s="28"/>
-      <c r="Z74" s="28"/>
-      <c r="AA74" s="28"/>
-      <c r="AB74" s="28"/>
-      <c r="AC74" s="28"/>
-      <c r="AD74" s="28"/>
-      <c r="AE74" s="28"/>
-      <c r="AF74" s="28"/>
+      <c r="B74" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C74" s="32"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="32"/>
+      <c r="F74" s="32"/>
+      <c r="G74" s="33"/>
+      <c r="H74" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I74" s="32"/>
+      <c r="J74" s="32"/>
+      <c r="K74" s="33"/>
+      <c r="L74" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="M74" s="32"/>
+      <c r="N74" s="32"/>
+      <c r="O74" s="32"/>
+      <c r="P74" s="32"/>
+      <c r="Q74" s="32"/>
+      <c r="R74" s="32"/>
+      <c r="S74" s="32"/>
+      <c r="T74" s="33"/>
+      <c r="U74" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="V74" s="32"/>
+      <c r="W74" s="32"/>
+      <c r="X74" s="32"/>
+      <c r="Y74" s="32"/>
+      <c r="Z74" s="32"/>
+      <c r="AA74" s="32"/>
+      <c r="AB74" s="32"/>
+      <c r="AC74" s="32"/>
+      <c r="AD74" s="32"/>
+      <c r="AE74" s="32"/>
+      <c r="AF74" s="33"/>
     </row>
     <row r="75" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A75" s="21">
@@ -7357,18 +7768,92 @@
     </row>
   </sheetData>
   <mergeCells count="114">
-    <mergeCell ref="B80:G80"/>
-    <mergeCell ref="H80:K80"/>
-    <mergeCell ref="L80:T80"/>
-    <mergeCell ref="U80:AF80"/>
-    <mergeCell ref="B78:G78"/>
-    <mergeCell ref="H78:K78"/>
-    <mergeCell ref="L78:T78"/>
-    <mergeCell ref="U78:AF78"/>
-    <mergeCell ref="B79:G79"/>
-    <mergeCell ref="H79:K79"/>
-    <mergeCell ref="L79:T79"/>
-    <mergeCell ref="U79:AF79"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:T58"/>
+    <mergeCell ref="U58:AF58"/>
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:T61"/>
+    <mergeCell ref="U61:AF61"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:T59"/>
+    <mergeCell ref="U59:AF59"/>
+    <mergeCell ref="B60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:T60"/>
+    <mergeCell ref="U60:AF60"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:T55"/>
+    <mergeCell ref="U55:AF55"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:T56"/>
+    <mergeCell ref="U56:AF56"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:T57"/>
+    <mergeCell ref="U57:AF57"/>
+    <mergeCell ref="A45:AF45"/>
+    <mergeCell ref="A46:AF50"/>
+    <mergeCell ref="B53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:T53"/>
+    <mergeCell ref="U53:AF53"/>
+    <mergeCell ref="B54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:T54"/>
+    <mergeCell ref="U54:AF54"/>
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:T64"/>
+    <mergeCell ref="U64:AF64"/>
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:T65"/>
+    <mergeCell ref="U65:AF65"/>
+    <mergeCell ref="B62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:T62"/>
+    <mergeCell ref="U62:AF62"/>
+    <mergeCell ref="B63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:T63"/>
+    <mergeCell ref="U63:AF63"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:T68"/>
+    <mergeCell ref="U68:AF68"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:T69"/>
+    <mergeCell ref="U69:AF69"/>
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:T66"/>
+    <mergeCell ref="U66:AF66"/>
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:T67"/>
+    <mergeCell ref="U67:AF67"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:T72"/>
+    <mergeCell ref="U72:AF72"/>
+    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:T73"/>
+    <mergeCell ref="U73:AF73"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:T70"/>
+    <mergeCell ref="U70:AF70"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:T71"/>
+    <mergeCell ref="U71:AF71"/>
     <mergeCell ref="B76:G76"/>
     <mergeCell ref="H76:K76"/>
     <mergeCell ref="L76:T76"/>
@@ -7385,92 +7870,18 @@
     <mergeCell ref="H75:K75"/>
     <mergeCell ref="L75:T75"/>
     <mergeCell ref="U75:AF75"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="H72:K72"/>
-    <mergeCell ref="L72:T72"/>
-    <mergeCell ref="U72:AF72"/>
-    <mergeCell ref="B73:G73"/>
-    <mergeCell ref="H73:K73"/>
-    <mergeCell ref="L73:T73"/>
-    <mergeCell ref="U73:AF73"/>
-    <mergeCell ref="B70:G70"/>
-    <mergeCell ref="H70:K70"/>
-    <mergeCell ref="L70:T70"/>
-    <mergeCell ref="U70:AF70"/>
-    <mergeCell ref="B71:G71"/>
-    <mergeCell ref="H71:K71"/>
-    <mergeCell ref="L71:T71"/>
-    <mergeCell ref="U71:AF71"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="H68:K68"/>
-    <mergeCell ref="L68:T68"/>
-    <mergeCell ref="U68:AF68"/>
-    <mergeCell ref="B69:G69"/>
-    <mergeCell ref="H69:K69"/>
-    <mergeCell ref="L69:T69"/>
-    <mergeCell ref="U69:AF69"/>
-    <mergeCell ref="B66:G66"/>
-    <mergeCell ref="H66:K66"/>
-    <mergeCell ref="L66:T66"/>
-    <mergeCell ref="U66:AF66"/>
-    <mergeCell ref="B67:G67"/>
-    <mergeCell ref="H67:K67"/>
-    <mergeCell ref="L67:T67"/>
-    <mergeCell ref="U67:AF67"/>
-    <mergeCell ref="B64:G64"/>
-    <mergeCell ref="H64:K64"/>
-    <mergeCell ref="L64:T64"/>
-    <mergeCell ref="U64:AF64"/>
-    <mergeCell ref="B65:G65"/>
-    <mergeCell ref="H65:K65"/>
-    <mergeCell ref="L65:T65"/>
-    <mergeCell ref="U65:AF65"/>
-    <mergeCell ref="B62:G62"/>
-    <mergeCell ref="H62:K62"/>
-    <mergeCell ref="L62:T62"/>
-    <mergeCell ref="U62:AF62"/>
-    <mergeCell ref="B63:G63"/>
-    <mergeCell ref="H63:K63"/>
-    <mergeCell ref="L63:T63"/>
-    <mergeCell ref="U63:AF63"/>
-    <mergeCell ref="A45:AF45"/>
-    <mergeCell ref="A46:AF50"/>
-    <mergeCell ref="B53:G53"/>
-    <mergeCell ref="H53:K53"/>
-    <mergeCell ref="L53:T53"/>
-    <mergeCell ref="U53:AF53"/>
-    <mergeCell ref="B54:G54"/>
-    <mergeCell ref="H54:K54"/>
-    <mergeCell ref="L54:T54"/>
-    <mergeCell ref="U54:AF54"/>
-    <mergeCell ref="B55:G55"/>
-    <mergeCell ref="H55:K55"/>
-    <mergeCell ref="L55:T55"/>
-    <mergeCell ref="U55:AF55"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="H56:K56"/>
-    <mergeCell ref="L56:T56"/>
-    <mergeCell ref="U56:AF56"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="H57:K57"/>
-    <mergeCell ref="L57:T57"/>
-    <mergeCell ref="U57:AF57"/>
-    <mergeCell ref="B58:G58"/>
-    <mergeCell ref="H58:K58"/>
-    <mergeCell ref="L58:T58"/>
-    <mergeCell ref="U58:AF58"/>
-    <mergeCell ref="B61:G61"/>
-    <mergeCell ref="H61:K61"/>
-    <mergeCell ref="L61:T61"/>
-    <mergeCell ref="U61:AF61"/>
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="H59:K59"/>
-    <mergeCell ref="L59:T59"/>
-    <mergeCell ref="U59:AF59"/>
-    <mergeCell ref="B60:G60"/>
-    <mergeCell ref="H60:K60"/>
-    <mergeCell ref="L60:T60"/>
-    <mergeCell ref="U60:AF60"/>
+    <mergeCell ref="B80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:T80"/>
+    <mergeCell ref="U80:AF80"/>
+    <mergeCell ref="B78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:T78"/>
+    <mergeCell ref="U78:AF78"/>
+    <mergeCell ref="B79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:T79"/>
+    <mergeCell ref="U79:AF79"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -7483,9 +7894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E22C6006-1C2A-446C-896C-83BBEC0EFE83}">
   <dimension ref="A2:CE24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:F12"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -7550,7 +7959,7 @@
     </row>
     <row r="3" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
@@ -7669,20 +8078,20 @@
         <v>11</v>
       </c>
       <c r="B5" s="29"/>
-      <c r="C5" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="33"/>
+      <c r="C5" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="39"/>
       <c r="M5" s="29" t="s">
         <v>5</v>
       </c>
@@ -7730,58 +8139,58 @@
       <c r="BA5" s="29"/>
       <c r="BB5" s="29"/>
       <c r="BC5" s="29"/>
-      <c r="BD5" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="BE5" s="32"/>
-      <c r="BF5" s="32"/>
-      <c r="BG5" s="32"/>
-      <c r="BH5" s="32"/>
-      <c r="BI5" s="32"/>
-      <c r="BJ5" s="32"/>
-      <c r="BK5" s="32"/>
-      <c r="BL5" s="32"/>
-      <c r="BM5" s="32"/>
-      <c r="BN5" s="32"/>
-      <c r="BO5" s="32"/>
-      <c r="BP5" s="32"/>
-      <c r="BQ5" s="32"/>
-      <c r="BR5" s="32"/>
-      <c r="BS5" s="32"/>
-      <c r="BT5" s="32"/>
-      <c r="BU5" s="32"/>
-      <c r="BV5" s="32"/>
-      <c r="BW5" s="32"/>
-      <c r="BX5" s="32"/>
-      <c r="BY5" s="32"/>
-      <c r="BZ5" s="32"/>
-      <c r="CA5" s="32"/>
-      <c r="CB5" s="32"/>
-      <c r="CC5" s="32"/>
-      <c r="CD5" s="32"/>
-      <c r="CE5" s="33"/>
+      <c r="BD5" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="BE5" s="38"/>
+      <c r="BF5" s="38"/>
+      <c r="BG5" s="38"/>
+      <c r="BH5" s="38"/>
+      <c r="BI5" s="38"/>
+      <c r="BJ5" s="38"/>
+      <c r="BK5" s="38"/>
+      <c r="BL5" s="38"/>
+      <c r="BM5" s="38"/>
+      <c r="BN5" s="38"/>
+      <c r="BO5" s="38"/>
+      <c r="BP5" s="38"/>
+      <c r="BQ5" s="38"/>
+      <c r="BR5" s="38"/>
+      <c r="BS5" s="38"/>
+      <c r="BT5" s="38"/>
+      <c r="BU5" s="38"/>
+      <c r="BV5" s="38"/>
+      <c r="BW5" s="38"/>
+      <c r="BX5" s="38"/>
+      <c r="BY5" s="38"/>
+      <c r="BZ5" s="38"/>
+      <c r="CA5" s="38"/>
+      <c r="CB5" s="38"/>
+      <c r="CC5" s="38"/>
+      <c r="CD5" s="38"/>
+      <c r="CE5" s="39"/>
     </row>
     <row r="6" spans="1:83" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="30">
         <v>1</v>
       </c>
       <c r="B6" s="30"/>
-      <c r="C6" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="39"/>
+      <c r="C6" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="36"/>
       <c r="M6" s="28" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="N6" s="28"/>
       <c r="O6" s="28"/>
@@ -7801,7 +8210,7 @@
       <c r="AC6" s="28"/>
       <c r="AD6" s="28"/>
       <c r="AE6" s="28" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="AF6" s="28"/>
       <c r="AG6" s="28"/>
@@ -7827,36 +8236,36 @@
       <c r="BA6" s="28"/>
       <c r="BB6" s="28"/>
       <c r="BC6" s="28"/>
-      <c r="BD6" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="BE6" s="35"/>
-      <c r="BF6" s="35"/>
-      <c r="BG6" s="35"/>
-      <c r="BH6" s="35"/>
-      <c r="BI6" s="35"/>
-      <c r="BJ6" s="35"/>
-      <c r="BK6" s="35"/>
-      <c r="BL6" s="35"/>
-      <c r="BM6" s="35"/>
-      <c r="BN6" s="35"/>
-      <c r="BO6" s="35"/>
-      <c r="BP6" s="35"/>
-      <c r="BQ6" s="35"/>
-      <c r="BR6" s="35"/>
-      <c r="BS6" s="35"/>
-      <c r="BT6" s="35"/>
-      <c r="BU6" s="35"/>
-      <c r="BV6" s="35"/>
-      <c r="BW6" s="35"/>
-      <c r="BX6" s="35"/>
-      <c r="BY6" s="35"/>
-      <c r="BZ6" s="35"/>
-      <c r="CA6" s="35"/>
-      <c r="CB6" s="35"/>
-      <c r="CC6" s="35"/>
-      <c r="CD6" s="35"/>
-      <c r="CE6" s="36"/>
+      <c r="BD6" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="BE6" s="32"/>
+      <c r="BF6" s="32"/>
+      <c r="BG6" s="32"/>
+      <c r="BH6" s="32"/>
+      <c r="BI6" s="32"/>
+      <c r="BJ6" s="32"/>
+      <c r="BK6" s="32"/>
+      <c r="BL6" s="32"/>
+      <c r="BM6" s="32"/>
+      <c r="BN6" s="32"/>
+      <c r="BO6" s="32"/>
+      <c r="BP6" s="32"/>
+      <c r="BQ6" s="32"/>
+      <c r="BR6" s="32"/>
+      <c r="BS6" s="32"/>
+      <c r="BT6" s="32"/>
+      <c r="BU6" s="32"/>
+      <c r="BV6" s="32"/>
+      <c r="BW6" s="32"/>
+      <c r="BX6" s="32"/>
+      <c r="BY6" s="32"/>
+      <c r="BZ6" s="32"/>
+      <c r="CA6" s="32"/>
+      <c r="CB6" s="32"/>
+      <c r="CC6" s="32"/>
+      <c r="CD6" s="32"/>
+      <c r="CE6" s="33"/>
     </row>
     <row r="7" spans="1:83" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="30">
@@ -7864,22 +8273,22 @@
         <v>2</v>
       </c>
       <c r="B7" s="30"/>
-      <c r="C7" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="39"/>
+      <c r="C7" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="36"/>
       <c r="M7" s="28" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="N7" s="28"/>
       <c r="O7" s="28"/>
@@ -7899,7 +8308,7 @@
       <c r="AC7" s="28"/>
       <c r="AD7" s="28"/>
       <c r="AE7" s="28" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="AF7" s="28"/>
       <c r="AG7" s="28"/>
@@ -7925,36 +8334,36 @@
       <c r="BA7" s="28"/>
       <c r="BB7" s="28"/>
       <c r="BC7" s="28"/>
-      <c r="BD7" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="BE7" s="35"/>
-      <c r="BF7" s="35"/>
-      <c r="BG7" s="35"/>
-      <c r="BH7" s="35"/>
-      <c r="BI7" s="35"/>
-      <c r="BJ7" s="35"/>
-      <c r="BK7" s="35"/>
-      <c r="BL7" s="35"/>
-      <c r="BM7" s="35"/>
-      <c r="BN7" s="35"/>
-      <c r="BO7" s="35"/>
-      <c r="BP7" s="35"/>
-      <c r="BQ7" s="35"/>
-      <c r="BR7" s="35"/>
-      <c r="BS7" s="35"/>
-      <c r="BT7" s="35"/>
-      <c r="BU7" s="35"/>
-      <c r="BV7" s="35"/>
-      <c r="BW7" s="35"/>
-      <c r="BX7" s="35"/>
-      <c r="BY7" s="35"/>
-      <c r="BZ7" s="35"/>
-      <c r="CA7" s="35"/>
-      <c r="CB7" s="35"/>
-      <c r="CC7" s="35"/>
-      <c r="CD7" s="35"/>
-      <c r="CE7" s="36"/>
+      <c r="BD7" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="BE7" s="32"/>
+      <c r="BF7" s="32"/>
+      <c r="BG7" s="32"/>
+      <c r="BH7" s="32"/>
+      <c r="BI7" s="32"/>
+      <c r="BJ7" s="32"/>
+      <c r="BK7" s="32"/>
+      <c r="BL7" s="32"/>
+      <c r="BM7" s="32"/>
+      <c r="BN7" s="32"/>
+      <c r="BO7" s="32"/>
+      <c r="BP7" s="32"/>
+      <c r="BQ7" s="32"/>
+      <c r="BR7" s="32"/>
+      <c r="BS7" s="32"/>
+      <c r="BT7" s="32"/>
+      <c r="BU7" s="32"/>
+      <c r="BV7" s="32"/>
+      <c r="BW7" s="32"/>
+      <c r="BX7" s="32"/>
+      <c r="BY7" s="32"/>
+      <c r="BZ7" s="32"/>
+      <c r="CA7" s="32"/>
+      <c r="CB7" s="32"/>
+      <c r="CC7" s="32"/>
+      <c r="CD7" s="32"/>
+      <c r="CE7" s="33"/>
     </row>
     <row r="8" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A8" s="30">
@@ -7962,16 +8371,16 @@
         <v>3</v>
       </c>
       <c r="B8" s="30"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="39"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="36"/>
       <c r="M8" s="28"/>
       <c r="N8" s="28"/>
       <c r="O8" s="28"/>
@@ -8015,34 +8424,34 @@
       <c r="BA8" s="28"/>
       <c r="BB8" s="28"/>
       <c r="BC8" s="28"/>
-      <c r="BD8" s="34"/>
-      <c r="BE8" s="35"/>
-      <c r="BF8" s="35"/>
-      <c r="BG8" s="35"/>
-      <c r="BH8" s="35"/>
-      <c r="BI8" s="35"/>
-      <c r="BJ8" s="35"/>
-      <c r="BK8" s="35"/>
-      <c r="BL8" s="35"/>
-      <c r="BM8" s="35"/>
-      <c r="BN8" s="35"/>
-      <c r="BO8" s="35"/>
-      <c r="BP8" s="35"/>
-      <c r="BQ8" s="35"/>
-      <c r="BR8" s="35"/>
-      <c r="BS8" s="35"/>
-      <c r="BT8" s="35"/>
-      <c r="BU8" s="35"/>
-      <c r="BV8" s="35"/>
-      <c r="BW8" s="35"/>
-      <c r="BX8" s="35"/>
-      <c r="BY8" s="35"/>
-      <c r="BZ8" s="35"/>
-      <c r="CA8" s="35"/>
-      <c r="CB8" s="35"/>
-      <c r="CC8" s="35"/>
-      <c r="CD8" s="35"/>
-      <c r="CE8" s="36"/>
+      <c r="BD8" s="31"/>
+      <c r="BE8" s="32"/>
+      <c r="BF8" s="32"/>
+      <c r="BG8" s="32"/>
+      <c r="BH8" s="32"/>
+      <c r="BI8" s="32"/>
+      <c r="BJ8" s="32"/>
+      <c r="BK8" s="32"/>
+      <c r="BL8" s="32"/>
+      <c r="BM8" s="32"/>
+      <c r="BN8" s="32"/>
+      <c r="BO8" s="32"/>
+      <c r="BP8" s="32"/>
+      <c r="BQ8" s="32"/>
+      <c r="BR8" s="32"/>
+      <c r="BS8" s="32"/>
+      <c r="BT8" s="32"/>
+      <c r="BU8" s="32"/>
+      <c r="BV8" s="32"/>
+      <c r="BW8" s="32"/>
+      <c r="BX8" s="32"/>
+      <c r="BY8" s="32"/>
+      <c r="BZ8" s="32"/>
+      <c r="CA8" s="32"/>
+      <c r="CB8" s="32"/>
+      <c r="CC8" s="32"/>
+      <c r="CD8" s="32"/>
+      <c r="CE8" s="33"/>
     </row>
     <row r="9" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A9" s="17"/>
@@ -8163,20 +8572,20 @@
         <v>11</v>
       </c>
       <c r="B11" s="29"/>
-      <c r="C11" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="33"/>
+      <c r="C11" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="39"/>
       <c r="M11" s="29" t="s">
         <v>10</v>
       </c>
@@ -8228,58 +8637,58 @@
       <c r="BA11" s="29"/>
       <c r="BB11" s="29"/>
       <c r="BC11" s="29"/>
-      <c r="BD11" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="BE11" s="32"/>
-      <c r="BF11" s="32"/>
-      <c r="BG11" s="32"/>
-      <c r="BH11" s="32"/>
-      <c r="BI11" s="32"/>
-      <c r="BJ11" s="32"/>
-      <c r="BK11" s="32"/>
-      <c r="BL11" s="32"/>
-      <c r="BM11" s="32"/>
-      <c r="BN11" s="32"/>
-      <c r="BO11" s="32"/>
-      <c r="BP11" s="32"/>
-      <c r="BQ11" s="32"/>
-      <c r="BR11" s="32"/>
-      <c r="BS11" s="32"/>
-      <c r="BT11" s="32"/>
-      <c r="BU11" s="32"/>
-      <c r="BV11" s="32"/>
-      <c r="BW11" s="32"/>
-      <c r="BX11" s="32"/>
-      <c r="BY11" s="32"/>
-      <c r="BZ11" s="32"/>
-      <c r="CA11" s="32"/>
-      <c r="CB11" s="32"/>
-      <c r="CC11" s="32"/>
-      <c r="CD11" s="32"/>
-      <c r="CE11" s="33"/>
-    </row>
-    <row r="12" spans="1:83" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BD11" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="BE11" s="38"/>
+      <c r="BF11" s="38"/>
+      <c r="BG11" s="38"/>
+      <c r="BH11" s="38"/>
+      <c r="BI11" s="38"/>
+      <c r="BJ11" s="38"/>
+      <c r="BK11" s="38"/>
+      <c r="BL11" s="38"/>
+      <c r="BM11" s="38"/>
+      <c r="BN11" s="38"/>
+      <c r="BO11" s="38"/>
+      <c r="BP11" s="38"/>
+      <c r="BQ11" s="38"/>
+      <c r="BR11" s="38"/>
+      <c r="BS11" s="38"/>
+      <c r="BT11" s="38"/>
+      <c r="BU11" s="38"/>
+      <c r="BV11" s="38"/>
+      <c r="BW11" s="38"/>
+      <c r="BX11" s="38"/>
+      <c r="BY11" s="38"/>
+      <c r="BZ11" s="38"/>
+      <c r="CA11" s="38"/>
+      <c r="CB11" s="38"/>
+      <c r="CC11" s="38"/>
+      <c r="CD11" s="38"/>
+      <c r="CE11" s="39"/>
+    </row>
+    <row r="12" spans="1:83" ht="31.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="30">
         <v>1</v>
       </c>
       <c r="B12" s="30"/>
-      <c r="C12" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="39"/>
+      <c r="C12" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="36"/>
       <c r="M12" s="28" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N12" s="28"/>
       <c r="O12" s="28"/>
@@ -8289,7 +8698,9 @@
       <c r="S12" s="28"/>
       <c r="T12" s="28"/>
       <c r="U12" s="28"/>
-      <c r="V12" s="28"/>
+      <c r="V12" s="28" t="s">
+        <v>65</v>
+      </c>
       <c r="W12" s="28"/>
       <c r="X12" s="28"/>
       <c r="Y12" s="28"/>
@@ -8298,7 +8709,9 @@
       <c r="AB12" s="28"/>
       <c r="AC12" s="28"/>
       <c r="AD12" s="28"/>
-      <c r="AE12" s="28"/>
+      <c r="AE12" s="28" t="s">
+        <v>65</v>
+      </c>
       <c r="AF12" s="28"/>
       <c r="AG12" s="28"/>
       <c r="AH12" s="28"/>
@@ -8308,7 +8721,7 @@
       <c r="AL12" s="28"/>
       <c r="AM12" s="28"/>
       <c r="AN12" s="28" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="AO12" s="28"/>
       <c r="AP12" s="28"/>
@@ -8325,52 +8738,60 @@
       <c r="BA12" s="28"/>
       <c r="BB12" s="28"/>
       <c r="BC12" s="28"/>
-      <c r="BD12" s="34"/>
-      <c r="BE12" s="35"/>
-      <c r="BF12" s="35"/>
-      <c r="BG12" s="35"/>
-      <c r="BH12" s="35"/>
-      <c r="BI12" s="35"/>
-      <c r="BJ12" s="35"/>
-      <c r="BK12" s="35"/>
-      <c r="BL12" s="35"/>
-      <c r="BM12" s="35"/>
-      <c r="BN12" s="35"/>
-      <c r="BO12" s="35"/>
-      <c r="BP12" s="35"/>
-      <c r="BQ12" s="35"/>
-      <c r="BR12" s="35"/>
-      <c r="BS12" s="35"/>
-      <c r="BT12" s="35"/>
-      <c r="BU12" s="35"/>
-      <c r="BV12" s="35"/>
-      <c r="BW12" s="35"/>
-      <c r="BX12" s="35"/>
-      <c r="BY12" s="35"/>
-      <c r="BZ12" s="35"/>
-      <c r="CA12" s="35"/>
-      <c r="CB12" s="35"/>
-      <c r="CC12" s="35"/>
-      <c r="CD12" s="35"/>
-      <c r="CE12" s="36"/>
-    </row>
-    <row r="13" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="BD12" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="BE12" s="32"/>
+      <c r="BF12" s="32"/>
+      <c r="BG12" s="32"/>
+      <c r="BH12" s="32"/>
+      <c r="BI12" s="32"/>
+      <c r="BJ12" s="32"/>
+      <c r="BK12" s="32"/>
+      <c r="BL12" s="32"/>
+      <c r="BM12" s="32"/>
+      <c r="BN12" s="32"/>
+      <c r="BO12" s="32"/>
+      <c r="BP12" s="32"/>
+      <c r="BQ12" s="32"/>
+      <c r="BR12" s="32"/>
+      <c r="BS12" s="32"/>
+      <c r="BT12" s="32"/>
+      <c r="BU12" s="32"/>
+      <c r="BV12" s="32"/>
+      <c r="BW12" s="32"/>
+      <c r="BX12" s="32"/>
+      <c r="BY12" s="32"/>
+      <c r="BZ12" s="32"/>
+      <c r="CA12" s="32"/>
+      <c r="CB12" s="32"/>
+      <c r="CC12" s="32"/>
+      <c r="CD12" s="32"/>
+      <c r="CE12" s="33"/>
+    </row>
+    <row r="13" spans="1:83" ht="31.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="30">
         <f xml:space="preserve"> $A12+1</f>
         <v>2</v>
       </c>
       <c r="B13" s="30"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="28"/>
+      <c r="C13" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="28" t="s">
+        <v>85</v>
+      </c>
       <c r="N13" s="28"/>
       <c r="O13" s="28"/>
       <c r="P13" s="28"/>
@@ -8379,7 +8800,9 @@
       <c r="S13" s="28"/>
       <c r="T13" s="28"/>
       <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
+      <c r="V13" s="28" t="s">
+        <v>65</v>
+      </c>
       <c r="W13" s="28"/>
       <c r="X13" s="28"/>
       <c r="Y13" s="28"/>
@@ -8388,7 +8811,9 @@
       <c r="AB13" s="28"/>
       <c r="AC13" s="28"/>
       <c r="AD13" s="28"/>
-      <c r="AE13" s="28"/>
+      <c r="AE13" s="28" t="s">
+        <v>65</v>
+      </c>
       <c r="AF13" s="28"/>
       <c r="AG13" s="28"/>
       <c r="AH13" s="28"/>
@@ -8397,7 +8822,9 @@
       <c r="AK13" s="28"/>
       <c r="AL13" s="28"/>
       <c r="AM13" s="28"/>
-      <c r="AN13" s="28"/>
+      <c r="AN13" s="28" t="s">
+        <v>92</v>
+      </c>
       <c r="AO13" s="28"/>
       <c r="AP13" s="28"/>
       <c r="AQ13" s="28"/>
@@ -8413,52 +8840,60 @@
       <c r="BA13" s="28"/>
       <c r="BB13" s="28"/>
       <c r="BC13" s="28"/>
-      <c r="BD13" s="34"/>
-      <c r="BE13" s="35"/>
-      <c r="BF13" s="35"/>
-      <c r="BG13" s="35"/>
-      <c r="BH13" s="35"/>
-      <c r="BI13" s="35"/>
-      <c r="BJ13" s="35"/>
-      <c r="BK13" s="35"/>
-      <c r="BL13" s="35"/>
-      <c r="BM13" s="35"/>
-      <c r="BN13" s="35"/>
-      <c r="BO13" s="35"/>
-      <c r="BP13" s="35"/>
-      <c r="BQ13" s="35"/>
-      <c r="BR13" s="35"/>
-      <c r="BS13" s="35"/>
-      <c r="BT13" s="35"/>
-      <c r="BU13" s="35"/>
-      <c r="BV13" s="35"/>
-      <c r="BW13" s="35"/>
-      <c r="BX13" s="35"/>
-      <c r="BY13" s="35"/>
-      <c r="BZ13" s="35"/>
-      <c r="CA13" s="35"/>
-      <c r="CB13" s="35"/>
-      <c r="CC13" s="35"/>
-      <c r="CD13" s="35"/>
-      <c r="CE13" s="36"/>
-    </row>
-    <row r="14" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="BD13" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="BE13" s="32"/>
+      <c r="BF13" s="32"/>
+      <c r="BG13" s="32"/>
+      <c r="BH13" s="32"/>
+      <c r="BI13" s="32"/>
+      <c r="BJ13" s="32"/>
+      <c r="BK13" s="32"/>
+      <c r="BL13" s="32"/>
+      <c r="BM13" s="32"/>
+      <c r="BN13" s="32"/>
+      <c r="BO13" s="32"/>
+      <c r="BP13" s="32"/>
+      <c r="BQ13" s="32"/>
+      <c r="BR13" s="32"/>
+      <c r="BS13" s="32"/>
+      <c r="BT13" s="32"/>
+      <c r="BU13" s="32"/>
+      <c r="BV13" s="32"/>
+      <c r="BW13" s="32"/>
+      <c r="BX13" s="32"/>
+      <c r="BY13" s="32"/>
+      <c r="BZ13" s="32"/>
+      <c r="CA13" s="32"/>
+      <c r="CB13" s="32"/>
+      <c r="CC13" s="32"/>
+      <c r="CD13" s="32"/>
+      <c r="CE13" s="33"/>
+    </row>
+    <row r="14" spans="1:83" ht="28.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="30">
         <f t="shared" ref="A14:A16" si="0" xml:space="preserve"> $A13+1</f>
         <v>3</v>
       </c>
       <c r="B14" s="30"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="28"/>
+      <c r="C14" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="28" t="s">
+        <v>85</v>
+      </c>
       <c r="N14" s="28"/>
       <c r="O14" s="28"/>
       <c r="P14" s="28"/>
@@ -8467,7 +8902,9 @@
       <c r="S14" s="28"/>
       <c r="T14" s="28"/>
       <c r="U14" s="28"/>
-      <c r="V14" s="28"/>
+      <c r="V14" s="28" t="s">
+        <v>65</v>
+      </c>
       <c r="W14" s="28"/>
       <c r="X14" s="28"/>
       <c r="Y14" s="28"/>
@@ -8476,7 +8913,9 @@
       <c r="AB14" s="28"/>
       <c r="AC14" s="28"/>
       <c r="AD14" s="28"/>
-      <c r="AE14" s="28"/>
+      <c r="AE14" s="28" t="s">
+        <v>65</v>
+      </c>
       <c r="AF14" s="28"/>
       <c r="AG14" s="28"/>
       <c r="AH14" s="28"/>
@@ -8485,7 +8924,9 @@
       <c r="AK14" s="28"/>
       <c r="AL14" s="28"/>
       <c r="AM14" s="28"/>
-      <c r="AN14" s="28"/>
+      <c r="AN14" s="28" t="s">
+        <v>93</v>
+      </c>
       <c r="AO14" s="28"/>
       <c r="AP14" s="28"/>
       <c r="AQ14" s="28"/>
@@ -8501,52 +8942,60 @@
       <c r="BA14" s="28"/>
       <c r="BB14" s="28"/>
       <c r="BC14" s="28"/>
-      <c r="BD14" s="34"/>
-      <c r="BE14" s="35"/>
-      <c r="BF14" s="35"/>
-      <c r="BG14" s="35"/>
-      <c r="BH14" s="35"/>
-      <c r="BI14" s="35"/>
-      <c r="BJ14" s="35"/>
-      <c r="BK14" s="35"/>
-      <c r="BL14" s="35"/>
-      <c r="BM14" s="35"/>
-      <c r="BN14" s="35"/>
-      <c r="BO14" s="35"/>
-      <c r="BP14" s="35"/>
-      <c r="BQ14" s="35"/>
-      <c r="BR14" s="35"/>
-      <c r="BS14" s="35"/>
-      <c r="BT14" s="35"/>
-      <c r="BU14" s="35"/>
-      <c r="BV14" s="35"/>
-      <c r="BW14" s="35"/>
-      <c r="BX14" s="35"/>
-      <c r="BY14" s="35"/>
-      <c r="BZ14" s="35"/>
-      <c r="CA14" s="35"/>
-      <c r="CB14" s="35"/>
-      <c r="CC14" s="35"/>
-      <c r="CD14" s="35"/>
-      <c r="CE14" s="36"/>
-    </row>
-    <row r="15" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="BD14" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="BE14" s="32"/>
+      <c r="BF14" s="32"/>
+      <c r="BG14" s="32"/>
+      <c r="BH14" s="32"/>
+      <c r="BI14" s="32"/>
+      <c r="BJ14" s="32"/>
+      <c r="BK14" s="32"/>
+      <c r="BL14" s="32"/>
+      <c r="BM14" s="32"/>
+      <c r="BN14" s="32"/>
+      <c r="BO14" s="32"/>
+      <c r="BP14" s="32"/>
+      <c r="BQ14" s="32"/>
+      <c r="BR14" s="32"/>
+      <c r="BS14" s="32"/>
+      <c r="BT14" s="32"/>
+      <c r="BU14" s="32"/>
+      <c r="BV14" s="32"/>
+      <c r="BW14" s="32"/>
+      <c r="BX14" s="32"/>
+      <c r="BY14" s="32"/>
+      <c r="BZ14" s="32"/>
+      <c r="CA14" s="32"/>
+      <c r="CB14" s="32"/>
+      <c r="CC14" s="32"/>
+      <c r="CD14" s="32"/>
+      <c r="CE14" s="33"/>
+    </row>
+    <row r="15" spans="1:83" ht="28.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="30">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B15" s="30"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="28"/>
+      <c r="C15" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="28" t="s">
+        <v>90</v>
+      </c>
       <c r="N15" s="28"/>
       <c r="O15" s="28"/>
       <c r="P15" s="28"/>
@@ -8555,7 +9004,9 @@
       <c r="S15" s="28"/>
       <c r="T15" s="28"/>
       <c r="U15" s="28"/>
-      <c r="V15" s="28"/>
+      <c r="V15" s="28" t="s">
+        <v>65</v>
+      </c>
       <c r="W15" s="28"/>
       <c r="X15" s="28"/>
       <c r="Y15" s="28"/>
@@ -8564,7 +9015,9 @@
       <c r="AB15" s="28"/>
       <c r="AC15" s="28"/>
       <c r="AD15" s="28"/>
-      <c r="AE15" s="28"/>
+      <c r="AE15" s="28" t="s">
+        <v>91</v>
+      </c>
       <c r="AF15" s="28"/>
       <c r="AG15" s="28"/>
       <c r="AH15" s="28"/>
@@ -8573,7 +9026,9 @@
       <c r="AK15" s="28"/>
       <c r="AL15" s="28"/>
       <c r="AM15" s="28"/>
-      <c r="AN15" s="28"/>
+      <c r="AN15" s="28" t="s">
+        <v>102</v>
+      </c>
       <c r="AO15" s="28"/>
       <c r="AP15" s="28"/>
       <c r="AQ15" s="28"/>
@@ -8589,34 +9044,36 @@
       <c r="BA15" s="28"/>
       <c r="BB15" s="28"/>
       <c r="BC15" s="28"/>
-      <c r="BD15" s="34"/>
-      <c r="BE15" s="35"/>
-      <c r="BF15" s="35"/>
-      <c r="BG15" s="35"/>
-      <c r="BH15" s="35"/>
-      <c r="BI15" s="35"/>
-      <c r="BJ15" s="35"/>
-      <c r="BK15" s="35"/>
-      <c r="BL15" s="35"/>
-      <c r="BM15" s="35"/>
-      <c r="BN15" s="35"/>
-      <c r="BO15" s="35"/>
-      <c r="BP15" s="35"/>
-      <c r="BQ15" s="35"/>
-      <c r="BR15" s="35"/>
-      <c r="BS15" s="35"/>
-      <c r="BT15" s="35"/>
-      <c r="BU15" s="35"/>
-      <c r="BV15" s="35"/>
-      <c r="BW15" s="35"/>
-      <c r="BX15" s="35"/>
-      <c r="BY15" s="35"/>
-      <c r="BZ15" s="35"/>
-      <c r="CA15" s="35"/>
-      <c r="CB15" s="35"/>
-      <c r="CC15" s="35"/>
-      <c r="CD15" s="35"/>
-      <c r="CE15" s="36"/>
+      <c r="BD15" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="BE15" s="32"/>
+      <c r="BF15" s="32"/>
+      <c r="BG15" s="32"/>
+      <c r="BH15" s="32"/>
+      <c r="BI15" s="32"/>
+      <c r="BJ15" s="32"/>
+      <c r="BK15" s="32"/>
+      <c r="BL15" s="32"/>
+      <c r="BM15" s="32"/>
+      <c r="BN15" s="32"/>
+      <c r="BO15" s="32"/>
+      <c r="BP15" s="32"/>
+      <c r="BQ15" s="32"/>
+      <c r="BR15" s="32"/>
+      <c r="BS15" s="32"/>
+      <c r="BT15" s="32"/>
+      <c r="BU15" s="32"/>
+      <c r="BV15" s="32"/>
+      <c r="BW15" s="32"/>
+      <c r="BX15" s="32"/>
+      <c r="BY15" s="32"/>
+      <c r="BZ15" s="32"/>
+      <c r="CA15" s="32"/>
+      <c r="CB15" s="32"/>
+      <c r="CC15" s="32"/>
+      <c r="CD15" s="32"/>
+      <c r="CE15" s="33"/>
     </row>
     <row r="16" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A16" s="30">
@@ -8624,16 +9081,16 @@
         <v>5</v>
       </c>
       <c r="B16" s="30"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="39"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="36"/>
       <c r="M16" s="28"/>
       <c r="N16" s="28"/>
       <c r="O16" s="28"/>
@@ -8677,54 +9134,54 @@
       <c r="BA16" s="28"/>
       <c r="BB16" s="28"/>
       <c r="BC16" s="28"/>
-      <c r="BD16" s="34"/>
-      <c r="BE16" s="35"/>
-      <c r="BF16" s="35"/>
-      <c r="BG16" s="35"/>
-      <c r="BH16" s="35"/>
-      <c r="BI16" s="35"/>
-      <c r="BJ16" s="35"/>
-      <c r="BK16" s="35"/>
-      <c r="BL16" s="35"/>
-      <c r="BM16" s="35"/>
-      <c r="BN16" s="35"/>
-      <c r="BO16" s="35"/>
-      <c r="BP16" s="35"/>
-      <c r="BQ16" s="35"/>
-      <c r="BR16" s="35"/>
-      <c r="BS16" s="35"/>
-      <c r="BT16" s="35"/>
-      <c r="BU16" s="35"/>
-      <c r="BV16" s="35"/>
-      <c r="BW16" s="35"/>
-      <c r="BX16" s="35"/>
-      <c r="BY16" s="35"/>
-      <c r="BZ16" s="35"/>
-      <c r="CA16" s="35"/>
-      <c r="CB16" s="35"/>
-      <c r="CC16" s="35"/>
-      <c r="CD16" s="35"/>
-      <c r="CE16" s="36"/>
+      <c r="BD16" s="31"/>
+      <c r="BE16" s="32"/>
+      <c r="BF16" s="32"/>
+      <c r="BG16" s="32"/>
+      <c r="BH16" s="32"/>
+      <c r="BI16" s="32"/>
+      <c r="BJ16" s="32"/>
+      <c r="BK16" s="32"/>
+      <c r="BL16" s="32"/>
+      <c r="BM16" s="32"/>
+      <c r="BN16" s="32"/>
+      <c r="BO16" s="32"/>
+      <c r="BP16" s="32"/>
+      <c r="BQ16" s="32"/>
+      <c r="BR16" s="32"/>
+      <c r="BS16" s="32"/>
+      <c r="BT16" s="32"/>
+      <c r="BU16" s="32"/>
+      <c r="BV16" s="32"/>
+      <c r="BW16" s="32"/>
+      <c r="BX16" s="32"/>
+      <c r="BY16" s="32"/>
+      <c r="BZ16" s="32"/>
+      <c r="CA16" s="32"/>
+      <c r="CB16" s="32"/>
+      <c r="CC16" s="32"/>
+      <c r="CD16" s="32"/>
+      <c r="CE16" s="33"/>
     </row>
     <row r="19" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A19" s="29" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="29"/>
-      <c r="C19" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="33"/>
+      <c r="C19" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="39"/>
       <c r="M19" s="29" t="s">
         <v>5</v>
       </c>
@@ -8774,58 +9231,58 @@
       <c r="BA19" s="29"/>
       <c r="BB19" s="29"/>
       <c r="BC19" s="29"/>
-      <c r="BD19" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="BE19" s="32"/>
-      <c r="BF19" s="32"/>
-      <c r="BG19" s="32"/>
-      <c r="BH19" s="32"/>
-      <c r="BI19" s="32"/>
-      <c r="BJ19" s="32"/>
-      <c r="BK19" s="32"/>
-      <c r="BL19" s="32"/>
-      <c r="BM19" s="32"/>
-      <c r="BN19" s="32"/>
-      <c r="BO19" s="32"/>
-      <c r="BP19" s="32"/>
-      <c r="BQ19" s="32"/>
-      <c r="BR19" s="32"/>
-      <c r="BS19" s="32"/>
-      <c r="BT19" s="32"/>
-      <c r="BU19" s="32"/>
-      <c r="BV19" s="32"/>
-      <c r="BW19" s="32"/>
-      <c r="BX19" s="32"/>
-      <c r="BY19" s="32"/>
-      <c r="BZ19" s="32"/>
-      <c r="CA19" s="32"/>
-      <c r="CB19" s="32"/>
-      <c r="CC19" s="32"/>
-      <c r="CD19" s="32"/>
-      <c r="CE19" s="33"/>
-    </row>
-    <row r="20" spans="1:83" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BD19" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="BE19" s="38"/>
+      <c r="BF19" s="38"/>
+      <c r="BG19" s="38"/>
+      <c r="BH19" s="38"/>
+      <c r="BI19" s="38"/>
+      <c r="BJ19" s="38"/>
+      <c r="BK19" s="38"/>
+      <c r="BL19" s="38"/>
+      <c r="BM19" s="38"/>
+      <c r="BN19" s="38"/>
+      <c r="BO19" s="38"/>
+      <c r="BP19" s="38"/>
+      <c r="BQ19" s="38"/>
+      <c r="BR19" s="38"/>
+      <c r="BS19" s="38"/>
+      <c r="BT19" s="38"/>
+      <c r="BU19" s="38"/>
+      <c r="BV19" s="38"/>
+      <c r="BW19" s="38"/>
+      <c r="BX19" s="38"/>
+      <c r="BY19" s="38"/>
+      <c r="BZ19" s="38"/>
+      <c r="CA19" s="38"/>
+      <c r="CB19" s="38"/>
+      <c r="CC19" s="38"/>
+      <c r="CD19" s="38"/>
+      <c r="CE19" s="39"/>
+    </row>
+    <row r="20" spans="1:83" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="30">
         <v>1</v>
       </c>
       <c r="B20" s="30"/>
-      <c r="C20" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="39"/>
+      <c r="C20" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="36"/>
       <c r="M20" s="28" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="N20" s="28"/>
       <c r="O20" s="28"/>
@@ -8839,7 +9296,7 @@
       <c r="W20" s="28"/>
       <c r="X20" s="28"/>
       <c r="Y20" s="28" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="Z20" s="28"/>
       <c r="AA20" s="28"/>
@@ -8853,7 +9310,7 @@
       <c r="AI20" s="28"/>
       <c r="AJ20" s="28"/>
       <c r="AK20" s="28" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="AL20" s="28"/>
       <c r="AM20" s="28"/>
@@ -8873,34 +9330,36 @@
       <c r="BA20" s="28"/>
       <c r="BB20" s="28"/>
       <c r="BC20" s="28"/>
-      <c r="BD20" s="34"/>
-      <c r="BE20" s="35"/>
-      <c r="BF20" s="35"/>
-      <c r="BG20" s="35"/>
-      <c r="BH20" s="35"/>
-      <c r="BI20" s="35"/>
-      <c r="BJ20" s="35"/>
-      <c r="BK20" s="35"/>
-      <c r="BL20" s="35"/>
-      <c r="BM20" s="35"/>
-      <c r="BN20" s="35"/>
-      <c r="BO20" s="35"/>
-      <c r="BP20" s="35"/>
-      <c r="BQ20" s="35"/>
-      <c r="BR20" s="35"/>
-      <c r="BS20" s="35"/>
-      <c r="BT20" s="35"/>
-      <c r="BU20" s="35"/>
-      <c r="BV20" s="35"/>
-      <c r="BW20" s="35"/>
-      <c r="BX20" s="35"/>
-      <c r="BY20" s="35"/>
-      <c r="BZ20" s="35"/>
-      <c r="CA20" s="35"/>
-      <c r="CB20" s="35"/>
-      <c r="CC20" s="35"/>
-      <c r="CD20" s="35"/>
-      <c r="CE20" s="36"/>
+      <c r="BD20" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="BE20" s="32"/>
+      <c r="BF20" s="32"/>
+      <c r="BG20" s="32"/>
+      <c r="BH20" s="32"/>
+      <c r="BI20" s="32"/>
+      <c r="BJ20" s="32"/>
+      <c r="BK20" s="32"/>
+      <c r="BL20" s="32"/>
+      <c r="BM20" s="32"/>
+      <c r="BN20" s="32"/>
+      <c r="BO20" s="32"/>
+      <c r="BP20" s="32"/>
+      <c r="BQ20" s="32"/>
+      <c r="BR20" s="32"/>
+      <c r="BS20" s="32"/>
+      <c r="BT20" s="32"/>
+      <c r="BU20" s="32"/>
+      <c r="BV20" s="32"/>
+      <c r="BW20" s="32"/>
+      <c r="BX20" s="32"/>
+      <c r="BY20" s="32"/>
+      <c r="BZ20" s="32"/>
+      <c r="CA20" s="32"/>
+      <c r="CB20" s="32"/>
+      <c r="CC20" s="32"/>
+      <c r="CD20" s="32"/>
+      <c r="CE20" s="33"/>
     </row>
     <row r="21" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A21" s="30">
@@ -8908,16 +9367,16 @@
         <v>2</v>
       </c>
       <c r="B21" s="30"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="39"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="36"/>
       <c r="M21" s="28"/>
       <c r="N21" s="28"/>
       <c r="O21" s="28"/>
@@ -8961,34 +9420,34 @@
       <c r="BA21" s="28"/>
       <c r="BB21" s="28"/>
       <c r="BC21" s="28"/>
-      <c r="BD21" s="34"/>
-      <c r="BE21" s="35"/>
-      <c r="BF21" s="35"/>
-      <c r="BG21" s="35"/>
-      <c r="BH21" s="35"/>
-      <c r="BI21" s="35"/>
-      <c r="BJ21" s="35"/>
-      <c r="BK21" s="35"/>
-      <c r="BL21" s="35"/>
-      <c r="BM21" s="35"/>
-      <c r="BN21" s="35"/>
-      <c r="BO21" s="35"/>
-      <c r="BP21" s="35"/>
-      <c r="BQ21" s="35"/>
-      <c r="BR21" s="35"/>
-      <c r="BS21" s="35"/>
-      <c r="BT21" s="35"/>
-      <c r="BU21" s="35"/>
-      <c r="BV21" s="35"/>
-      <c r="BW21" s="35"/>
-      <c r="BX21" s="35"/>
-      <c r="BY21" s="35"/>
-      <c r="BZ21" s="35"/>
-      <c r="CA21" s="35"/>
-      <c r="CB21" s="35"/>
-      <c r="CC21" s="35"/>
-      <c r="CD21" s="35"/>
-      <c r="CE21" s="36"/>
+      <c r="BD21" s="31"/>
+      <c r="BE21" s="32"/>
+      <c r="BF21" s="32"/>
+      <c r="BG21" s="32"/>
+      <c r="BH21" s="32"/>
+      <c r="BI21" s="32"/>
+      <c r="BJ21" s="32"/>
+      <c r="BK21" s="32"/>
+      <c r="BL21" s="32"/>
+      <c r="BM21" s="32"/>
+      <c r="BN21" s="32"/>
+      <c r="BO21" s="32"/>
+      <c r="BP21" s="32"/>
+      <c r="BQ21" s="32"/>
+      <c r="BR21" s="32"/>
+      <c r="BS21" s="32"/>
+      <c r="BT21" s="32"/>
+      <c r="BU21" s="32"/>
+      <c r="BV21" s="32"/>
+      <c r="BW21" s="32"/>
+      <c r="BX21" s="32"/>
+      <c r="BY21" s="32"/>
+      <c r="BZ21" s="32"/>
+      <c r="CA21" s="32"/>
+      <c r="CB21" s="32"/>
+      <c r="CC21" s="32"/>
+      <c r="CD21" s="32"/>
+      <c r="CE21" s="33"/>
     </row>
     <row r="22" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A22" s="30">
@@ -8996,16 +9455,16 @@
         <v>3</v>
       </c>
       <c r="B22" s="30"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="39"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="36"/>
       <c r="M22" s="28"/>
       <c r="N22" s="28"/>
       <c r="O22" s="28"/>
@@ -9049,34 +9508,34 @@
       <c r="BA22" s="28"/>
       <c r="BB22" s="28"/>
       <c r="BC22" s="28"/>
-      <c r="BD22" s="34"/>
-      <c r="BE22" s="35"/>
-      <c r="BF22" s="35"/>
-      <c r="BG22" s="35"/>
-      <c r="BH22" s="35"/>
-      <c r="BI22" s="35"/>
-      <c r="BJ22" s="35"/>
-      <c r="BK22" s="35"/>
-      <c r="BL22" s="35"/>
-      <c r="BM22" s="35"/>
-      <c r="BN22" s="35"/>
-      <c r="BO22" s="35"/>
-      <c r="BP22" s="35"/>
-      <c r="BQ22" s="35"/>
-      <c r="BR22" s="35"/>
-      <c r="BS22" s="35"/>
-      <c r="BT22" s="35"/>
-      <c r="BU22" s="35"/>
-      <c r="BV22" s="35"/>
-      <c r="BW22" s="35"/>
-      <c r="BX22" s="35"/>
-      <c r="BY22" s="35"/>
-      <c r="BZ22" s="35"/>
-      <c r="CA22" s="35"/>
-      <c r="CB22" s="35"/>
-      <c r="CC22" s="35"/>
-      <c r="CD22" s="35"/>
-      <c r="CE22" s="36"/>
+      <c r="BD22" s="31"/>
+      <c r="BE22" s="32"/>
+      <c r="BF22" s="32"/>
+      <c r="BG22" s="32"/>
+      <c r="BH22" s="32"/>
+      <c r="BI22" s="32"/>
+      <c r="BJ22" s="32"/>
+      <c r="BK22" s="32"/>
+      <c r="BL22" s="32"/>
+      <c r="BM22" s="32"/>
+      <c r="BN22" s="32"/>
+      <c r="BO22" s="32"/>
+      <c r="BP22" s="32"/>
+      <c r="BQ22" s="32"/>
+      <c r="BR22" s="32"/>
+      <c r="BS22" s="32"/>
+      <c r="BT22" s="32"/>
+      <c r="BU22" s="32"/>
+      <c r="BV22" s="32"/>
+      <c r="BW22" s="32"/>
+      <c r="BX22" s="32"/>
+      <c r="BY22" s="32"/>
+      <c r="BZ22" s="32"/>
+      <c r="CA22" s="32"/>
+      <c r="CB22" s="32"/>
+      <c r="CC22" s="32"/>
+      <c r="CD22" s="32"/>
+      <c r="CE22" s="33"/>
     </row>
     <row r="23" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A23" s="30">
@@ -9084,16 +9543,16 @@
         <v>4</v>
       </c>
       <c r="B23" s="30"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="39"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="36"/>
       <c r="M23" s="28"/>
       <c r="N23" s="28"/>
       <c r="O23" s="28"/>
@@ -9137,34 +9596,34 @@
       <c r="BA23" s="28"/>
       <c r="BB23" s="28"/>
       <c r="BC23" s="28"/>
-      <c r="BD23" s="34"/>
-      <c r="BE23" s="35"/>
-      <c r="BF23" s="35"/>
-      <c r="BG23" s="35"/>
-      <c r="BH23" s="35"/>
-      <c r="BI23" s="35"/>
-      <c r="BJ23" s="35"/>
-      <c r="BK23" s="35"/>
-      <c r="BL23" s="35"/>
-      <c r="BM23" s="35"/>
-      <c r="BN23" s="35"/>
-      <c r="BO23" s="35"/>
-      <c r="BP23" s="35"/>
-      <c r="BQ23" s="35"/>
-      <c r="BR23" s="35"/>
-      <c r="BS23" s="35"/>
-      <c r="BT23" s="35"/>
-      <c r="BU23" s="35"/>
-      <c r="BV23" s="35"/>
-      <c r="BW23" s="35"/>
-      <c r="BX23" s="35"/>
-      <c r="BY23" s="35"/>
-      <c r="BZ23" s="35"/>
-      <c r="CA23" s="35"/>
-      <c r="CB23" s="35"/>
-      <c r="CC23" s="35"/>
-      <c r="CD23" s="35"/>
-      <c r="CE23" s="36"/>
+      <c r="BD23" s="31"/>
+      <c r="BE23" s="32"/>
+      <c r="BF23" s="32"/>
+      <c r="BG23" s="32"/>
+      <c r="BH23" s="32"/>
+      <c r="BI23" s="32"/>
+      <c r="BJ23" s="32"/>
+      <c r="BK23" s="32"/>
+      <c r="BL23" s="32"/>
+      <c r="BM23" s="32"/>
+      <c r="BN23" s="32"/>
+      <c r="BO23" s="32"/>
+      <c r="BP23" s="32"/>
+      <c r="BQ23" s="32"/>
+      <c r="BR23" s="32"/>
+      <c r="BS23" s="32"/>
+      <c r="BT23" s="32"/>
+      <c r="BU23" s="32"/>
+      <c r="BV23" s="32"/>
+      <c r="BW23" s="32"/>
+      <c r="BX23" s="32"/>
+      <c r="BY23" s="32"/>
+      <c r="BZ23" s="32"/>
+      <c r="CA23" s="32"/>
+      <c r="CB23" s="32"/>
+      <c r="CC23" s="32"/>
+      <c r="CD23" s="32"/>
+      <c r="CE23" s="33"/>
     </row>
     <row r="24" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A24" s="30">
@@ -9172,16 +9631,16 @@
         <v>5</v>
       </c>
       <c r="B24" s="30"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="39"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="36"/>
       <c r="M24" s="28"/>
       <c r="N24" s="28"/>
       <c r="O24" s="28"/>
@@ -9225,48 +9684,118 @@
       <c r="BA24" s="28"/>
       <c r="BB24" s="28"/>
       <c r="BC24" s="28"/>
-      <c r="BD24" s="34"/>
-      <c r="BE24" s="35"/>
-      <c r="BF24" s="35"/>
-      <c r="BG24" s="35"/>
-      <c r="BH24" s="35"/>
-      <c r="BI24" s="35"/>
-      <c r="BJ24" s="35"/>
-      <c r="BK24" s="35"/>
-      <c r="BL24" s="35"/>
-      <c r="BM24" s="35"/>
-      <c r="BN24" s="35"/>
-      <c r="BO24" s="35"/>
-      <c r="BP24" s="35"/>
-      <c r="BQ24" s="35"/>
-      <c r="BR24" s="35"/>
-      <c r="BS24" s="35"/>
-      <c r="BT24" s="35"/>
-      <c r="BU24" s="35"/>
-      <c r="BV24" s="35"/>
-      <c r="BW24" s="35"/>
-      <c r="BX24" s="35"/>
-      <c r="BY24" s="35"/>
-      <c r="BZ24" s="35"/>
-      <c r="CA24" s="35"/>
-      <c r="CB24" s="35"/>
-      <c r="CC24" s="35"/>
-      <c r="CD24" s="35"/>
-      <c r="CE24" s="36"/>
+      <c r="BD24" s="31"/>
+      <c r="BE24" s="32"/>
+      <c r="BF24" s="32"/>
+      <c r="BG24" s="32"/>
+      <c r="BH24" s="32"/>
+      <c r="BI24" s="32"/>
+      <c r="BJ24" s="32"/>
+      <c r="BK24" s="32"/>
+      <c r="BL24" s="32"/>
+      <c r="BM24" s="32"/>
+      <c r="BN24" s="32"/>
+      <c r="BO24" s="32"/>
+      <c r="BP24" s="32"/>
+      <c r="BQ24" s="32"/>
+      <c r="BR24" s="32"/>
+      <c r="BS24" s="32"/>
+      <c r="BT24" s="32"/>
+      <c r="BU24" s="32"/>
+      <c r="BV24" s="32"/>
+      <c r="BW24" s="32"/>
+      <c r="BX24" s="32"/>
+      <c r="BY24" s="32"/>
+      <c r="BZ24" s="32"/>
+      <c r="CA24" s="32"/>
+      <c r="CB24" s="32"/>
+      <c r="CC24" s="32"/>
+      <c r="CD24" s="32"/>
+      <c r="CE24" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="116">
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:L24"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:L16"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:L19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:L20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="A2:BC2"/>
+    <mergeCell ref="M11:U11"/>
+    <mergeCell ref="V11:AD11"/>
+    <mergeCell ref="AE11:AM11"/>
+    <mergeCell ref="AE8:BC8"/>
+    <mergeCell ref="A3:BC3"/>
+    <mergeCell ref="AE6:BC6"/>
+    <mergeCell ref="AN11:BC11"/>
+    <mergeCell ref="AE5:BC5"/>
+    <mergeCell ref="M8:AD8"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="AE7:BC7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:L8"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="M12:U12"/>
+    <mergeCell ref="V12:AD12"/>
+    <mergeCell ref="AE12:AM12"/>
+    <mergeCell ref="AN12:BC12"/>
+    <mergeCell ref="M13:U13"/>
+    <mergeCell ref="V13:AD13"/>
+    <mergeCell ref="AE13:AM13"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:L12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="AN13:BC13"/>
+    <mergeCell ref="AK19:BC19"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="AN16:BC16"/>
+    <mergeCell ref="V14:AD14"/>
+    <mergeCell ref="AE14:AM14"/>
+    <mergeCell ref="AN14:BC14"/>
+    <mergeCell ref="M15:U15"/>
+    <mergeCell ref="V15:AD15"/>
+    <mergeCell ref="AE15:AM15"/>
+    <mergeCell ref="AN15:BC15"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:L14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="M21:X21"/>
+    <mergeCell ref="Y21:AJ21"/>
+    <mergeCell ref="AK21:BC21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="M20:X20"/>
+    <mergeCell ref="Y20:AJ20"/>
+    <mergeCell ref="AK20:BC20"/>
+    <mergeCell ref="M5:AD5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="M6:AD6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="M7:AD7"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="M19:X19"/>
+    <mergeCell ref="Y19:AJ19"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="V16:AD16"/>
+    <mergeCell ref="AE16:AM16"/>
+    <mergeCell ref="M16:U16"/>
+    <mergeCell ref="M14:U14"/>
+    <mergeCell ref="AK23:BC23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="M22:X22"/>
+    <mergeCell ref="Y22:AJ22"/>
+    <mergeCell ref="AK22:BC22"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:L23"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="M24:X24"/>
     <mergeCell ref="Y24:AJ24"/>
@@ -9291,87 +9820,17 @@
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="M23:X23"/>
     <mergeCell ref="Y23:AJ23"/>
-    <mergeCell ref="AK23:BC23"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="M22:X22"/>
-    <mergeCell ref="Y22:AJ22"/>
-    <mergeCell ref="AK22:BC22"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:L22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:L23"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="M21:X21"/>
-    <mergeCell ref="Y21:AJ21"/>
-    <mergeCell ref="AK21:BC21"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="M20:X20"/>
-    <mergeCell ref="Y20:AJ20"/>
-    <mergeCell ref="AK20:BC20"/>
-    <mergeCell ref="M5:AD5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="M6:AD6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="M7:AD7"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="M19:X19"/>
-    <mergeCell ref="Y19:AJ19"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="V16:AD16"/>
-    <mergeCell ref="AE16:AM16"/>
-    <mergeCell ref="M16:U16"/>
-    <mergeCell ref="M14:U14"/>
-    <mergeCell ref="AK19:BC19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="AN16:BC16"/>
-    <mergeCell ref="V14:AD14"/>
-    <mergeCell ref="AE14:AM14"/>
-    <mergeCell ref="AN14:BC14"/>
-    <mergeCell ref="M15:U15"/>
-    <mergeCell ref="V15:AD15"/>
-    <mergeCell ref="AE15:AM15"/>
-    <mergeCell ref="AN15:BC15"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:L14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="M12:U12"/>
-    <mergeCell ref="V12:AD12"/>
-    <mergeCell ref="AE12:AM12"/>
-    <mergeCell ref="AN12:BC12"/>
-    <mergeCell ref="M13:U13"/>
-    <mergeCell ref="V13:AD13"/>
-    <mergeCell ref="AE13:AM13"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:L12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="AN13:BC13"/>
-    <mergeCell ref="A2:BC2"/>
-    <mergeCell ref="M11:U11"/>
-    <mergeCell ref="V11:AD11"/>
-    <mergeCell ref="AE11:AM11"/>
-    <mergeCell ref="AE8:BC8"/>
-    <mergeCell ref="A3:BC3"/>
-    <mergeCell ref="AE6:BC6"/>
-    <mergeCell ref="AN11:BC11"/>
-    <mergeCell ref="AE5:BC5"/>
-    <mergeCell ref="M8:AD8"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="AE7:BC7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:L6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:L8"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:L24"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:L16"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:L19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:L21"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -9393,7 +9852,7 @@
       </c>
       <c r="B2" s="29"/>
       <c r="C2" s="29" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2" s="29"/>
       <c r="E2" s="29"/>
@@ -9405,7 +9864,7 @@
       <c r="K2" s="29"/>
       <c r="L2" s="29"/>
       <c r="M2" s="29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N2" s="29"/>
       <c r="O2" s="29"/>
@@ -9430,13 +9889,13 @@
       <c r="AH2" s="29"/>
       <c r="AI2" s="29"/>
     </row>
-    <row r="3" spans="1:35" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" ht="116.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="40">
         <v>1</v>
       </c>
       <c r="B3" s="40"/>
       <c r="C3" s="41" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="D3" s="41"/>
       <c r="E3" s="41"/>
@@ -9447,31 +9906,31 @@
       <c r="J3" s="41"/>
       <c r="K3" s="41"/>
       <c r="L3" s="41"/>
-      <c r="M3" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="42"/>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="42"/>
-      <c r="AB3" s="42"/>
-      <c r="AC3" s="42"/>
-      <c r="AD3" s="42"/>
-      <c r="AE3" s="42"/>
-      <c r="AF3" s="42"/>
-      <c r="AG3" s="42"/>
-      <c r="AH3" s="42"/>
-      <c r="AI3" s="42"/>
+      <c r="M3" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="43"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="43"/>
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="43"/>
+      <c r="AD3" s="43"/>
+      <c r="AE3" s="43"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="43"/>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="43"/>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" s="40">
@@ -9489,29 +9948,29 @@
       <c r="J4" s="41"/>
       <c r="K4" s="41"/>
       <c r="L4" s="41"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="43"/>
-      <c r="AD4" s="43"/>
-      <c r="AE4" s="43"/>
-      <c r="AF4" s="43"/>
-      <c r="AG4" s="43"/>
-      <c r="AH4" s="43"/>
-      <c r="AI4" s="43"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="42"/>
+      <c r="AA4" s="42"/>
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="42"/>
+      <c r="AD4" s="42"/>
+      <c r="AE4" s="42"/>
+      <c r="AF4" s="42"/>
+      <c r="AG4" s="42"/>
+      <c r="AH4" s="42"/>
+      <c r="AI4" s="42"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="40">
@@ -9529,29 +9988,29 @@
       <c r="J5" s="41"/>
       <c r="K5" s="41"/>
       <c r="L5" s="41"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="43"/>
-      <c r="T5" s="43"/>
-      <c r="U5" s="43"/>
-      <c r="V5" s="43"/>
-      <c r="W5" s="43"/>
-      <c r="X5" s="43"/>
-      <c r="Y5" s="43"/>
-      <c r="Z5" s="43"/>
-      <c r="AA5" s="43"/>
-      <c r="AB5" s="43"/>
-      <c r="AC5" s="43"/>
-      <c r="AD5" s="43"/>
-      <c r="AE5" s="43"/>
-      <c r="AF5" s="43"/>
-      <c r="AG5" s="43"/>
-      <c r="AH5" s="43"/>
-      <c r="AI5" s="43"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="42"/>
+      <c r="W5" s="42"/>
+      <c r="X5" s="42"/>
+      <c r="Y5" s="42"/>
+      <c r="Z5" s="42"/>
+      <c r="AA5" s="42"/>
+      <c r="AB5" s="42"/>
+      <c r="AC5" s="42"/>
+      <c r="AD5" s="42"/>
+      <c r="AE5" s="42"/>
+      <c r="AF5" s="42"/>
+      <c r="AG5" s="42"/>
+      <c r="AH5" s="42"/>
+      <c r="AI5" s="42"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="40">
@@ -9569,29 +10028,29 @@
       <c r="J6" s="41"/>
       <c r="K6" s="41"/>
       <c r="L6" s="41"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="43"/>
-      <c r="V6" s="43"/>
-      <c r="W6" s="43"/>
-      <c r="X6" s="43"/>
-      <c r="Y6" s="43"/>
-      <c r="Z6" s="43"/>
-      <c r="AA6" s="43"/>
-      <c r="AB6" s="43"/>
-      <c r="AC6" s="43"/>
-      <c r="AD6" s="43"/>
-      <c r="AE6" s="43"/>
-      <c r="AF6" s="43"/>
-      <c r="AG6" s="43"/>
-      <c r="AH6" s="43"/>
-      <c r="AI6" s="43"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="42"/>
+      <c r="U6" s="42"/>
+      <c r="V6" s="42"/>
+      <c r="W6" s="42"/>
+      <c r="X6" s="42"/>
+      <c r="Y6" s="42"/>
+      <c r="Z6" s="42"/>
+      <c r="AA6" s="42"/>
+      <c r="AB6" s="42"/>
+      <c r="AC6" s="42"/>
+      <c r="AD6" s="42"/>
+      <c r="AE6" s="42"/>
+      <c r="AF6" s="42"/>
+      <c r="AG6" s="42"/>
+      <c r="AH6" s="42"/>
+      <c r="AI6" s="42"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="40">
@@ -9609,32 +10068,38 @@
       <c r="J7" s="41"/>
       <c r="K7" s="41"/>
       <c r="L7" s="41"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="43"/>
-      <c r="S7" s="43"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="43"/>
-      <c r="V7" s="43"/>
-      <c r="W7" s="43"/>
-      <c r="X7" s="43"/>
-      <c r="Y7" s="43"/>
-      <c r="Z7" s="43"/>
-      <c r="AA7" s="43"/>
-      <c r="AB7" s="43"/>
-      <c r="AC7" s="43"/>
-      <c r="AD7" s="43"/>
-      <c r="AE7" s="43"/>
-      <c r="AF7" s="43"/>
-      <c r="AG7" s="43"/>
-      <c r="AH7" s="43"/>
-      <c r="AI7" s="43"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="42"/>
+      <c r="W7" s="42"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="42"/>
+      <c r="Z7" s="42"/>
+      <c r="AA7" s="42"/>
+      <c r="AB7" s="42"/>
+      <c r="AC7" s="42"/>
+      <c r="AD7" s="42"/>
+      <c r="AE7" s="42"/>
+      <c r="AF7" s="42"/>
+      <c r="AG7" s="42"/>
+      <c r="AH7" s="42"/>
+      <c r="AI7" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="M2:AI2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="M3:AI3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:L4"/>
     <mergeCell ref="M4:AI4"/>
@@ -9647,12 +10112,6 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:L6"/>
     <mergeCell ref="M6:AI6"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="M2:AI2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="M3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -9671,6 +10130,7 @@
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
